--- a/medicine/Premiers secours et secourisme/Accident_de_plongée_sous-marine/Accident_de_plongée_sous-marine.xlsx
+++ b/medicine/Premiers secours et secourisme/Accident_de_plongée_sous-marine/Accident_de_plongée_sous-marine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accident_de_plong%C3%A9e_sous-marine</t>
+          <t>Accident_de_plongée_sous-marine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La plongée sous-marine, en raison du milieu où elle se pratique et des contraintes physiologiques qu'elle entraîne, expose ses adeptes à des risques physiologiques. Cet article recense les types d'accidents les plus fréquemment rencontrés en plongée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accident_de_plong%C3%A9e_sous-marine</t>
+          <t>Accident_de_plongée_sous-marine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,33 +523,205 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les accidents de plongée sont de plusieurs types[1],[2]. Si certains de ces accidents sont transposables à la plongée en apnée, d'autres sont propres à cette dernière discipline, comme l'hyperventilation ou le rendez-vous syncopal des sept mètres.
-La panne d'air
-Les barotraumatismes
-Les accidents mécaniques, aussi appelés barotraumatismes, sont dus aux variations de pression :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les accidents de plongée sont de plusieurs types,. Si certains de ces accidents sont transposables à la plongée en apnée, d'autres sont propres à cette dernière discipline, comme l'hyperventilation ou le rendez-vous syncopal des sept mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Accident_de_plongée_sous-marine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_de_plong%C3%A9e_sous-marine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les barotraumatismes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les accidents mécaniques, aussi appelés barotraumatismes, sont dus aux variations de pression :
 le placage de masque ;
 le barotraumatisme des sinus ;
 le barotraumatisme des dents ;
 le barotraumatisme des oreilles ;
 le vertige alternobarique ;
-l'hyperpression pulmonaire, entraînant un œdème pulmonaire lésionnel et/ou pneumothorax.
-Les accidents entraînés par les modifications physiologiques induites par l'eau froide et par la pression
-l'œdème aigu pulmonaire d'immersion.
-Les accidents toxiques
-Les accidents toxiques sont dus aux réactions biochimiques de notre organisme et aux réactions aux substances contenues dans l'oxygène :
+l'hyperpression pulmonaire, entraînant un œdème pulmonaire lésionnel et/ou pneumothorax.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accident_de_plongée_sous-marine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_de_plong%C3%A9e_sous-marine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les accidents entraînés par les modifications physiologiques induites par l'eau froide et par la pression</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>l'œdème aigu pulmonaire d'immersion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Accident_de_plongée_sous-marine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_de_plong%C3%A9e_sous-marine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les accidents toxiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les accidents toxiques sont dus aux réactions biochimiques de notre organisme et aux réactions aux substances contenues dans l'oxygène :
 la narcose au diazote (ivresse des profondeurs) ;
 l'hyperoxie ;
 l'hypoxie ;
 l'hypercapnie ;
 l'intoxication au monoxyde de carbone (CO) ;
-le syndrome nerveux des hautes pressions (SNHP).
-Les accidents biophysiques
-Les accidents biophysiques sont des conséquences des lois de Dalton et de Henry :
-les accidents de décompression, qu'ils soient artériels, veineux ou intratissulaires (maladie de décompression).
-Les accidents dus au milieu
-la noyade ;
+le syndrome nerveux des hautes pressions (SNHP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accident_de_plongée_sous-marine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_de_plong%C3%A9e_sous-marine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les accidents biophysiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les accidents biophysiques sont des conséquences des lois de Dalton et de Henry :
+les accidents de décompression, qu'ils soient artériels, veineux ou intratissulaires (maladie de décompression).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Accident_de_plongée_sous-marine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accident_de_plong%C3%A9e_sous-marine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les accidents dus au milieu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>la noyade ;
 le froid (hypothermie) ;
 les coupures et plaies provoquées lors de la pénétration dans des épaves ;
 les blessures provoquées par des animaux (méduses, murènes, requins, raies, poisson-pierre, corail, animaux venimeux, par exemple).</t>
